--- a/Road_Map.xlsx
+++ b/Road_Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sam/Desktop/Epson_WS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B878A3-E8AB-DE47-B5FB-E652BB864CA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941A4F59-B5BC-3741-9086-54379ADDDBA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="1020" windowWidth="28040" windowHeight="17440" xr2:uid="{A27A5D58-989B-E34F-8F65-B59C7EA9A8F3}"/>
+    <workbookView xWindow="16420" yWindow="1660" windowWidth="28040" windowHeight="17440" xr2:uid="{A27A5D58-989B-E34F-8F65-B59C7EA9A8F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Websites</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Tiger Direct</t>
+  </si>
+  <si>
+    <t>PC Connection</t>
+  </si>
+  <si>
+    <t>Amazon</t>
   </si>
 </sst>
 </file>
@@ -515,7 +521,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,23 +646,40 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">

--- a/Road_Map.xlsx
+++ b/Road_Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sam/Desktop/Epson_WS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941A4F59-B5BC-3741-9086-54379ADDDBA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52C1ECC-8DFE-F24E-A8FE-C2BD83A813F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16420" yWindow="1660" windowWidth="28040" windowHeight="17440" xr2:uid="{A27A5D58-989B-E34F-8F65-B59C7EA9A8F3}"/>
+    <workbookView xWindow="8360" yWindow="4500" windowWidth="28040" windowHeight="17440" xr2:uid="{A27A5D58-989B-E34F-8F65-B59C7EA9A8F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Websites</t>
   </si>
@@ -51,21 +51,6 @@
     <t>Epson T3470</t>
   </si>
   <si>
-    <t>Epson 5470</t>
-  </si>
-  <si>
-    <t>Epson 3270</t>
-  </si>
-  <si>
-    <t>Epson 5270</t>
-  </si>
-  <si>
-    <t>Epson 7270</t>
-  </si>
-  <si>
-    <t>Cannon IPF670e</t>
-  </si>
-  <si>
     <t>HP designjet T120</t>
   </si>
   <si>
@@ -132,18 +117,9 @@
     <t>Graphical User Interface</t>
   </si>
   <si>
-    <t xml:space="preserve">Link with PowerBI dashboard </t>
-  </si>
-  <si>
-    <t>Scrub data over mastersheet to have uniform names</t>
-  </si>
-  <si>
     <t>Create database</t>
   </si>
   <si>
-    <t>Tiger</t>
-  </si>
-  <si>
     <t>Blocked Websites *use User-Agent</t>
   </si>
   <si>
@@ -157,6 +133,84 @@
   </si>
   <si>
     <t>Amazon</t>
+  </si>
+  <si>
+    <t>Epson T5470</t>
+  </si>
+  <si>
+    <t>Epson T3270</t>
+  </si>
+  <si>
+    <t>Epson T5270</t>
+  </si>
+  <si>
+    <t>Epson T7270</t>
+  </si>
+  <si>
+    <t>Canon IPF670e</t>
+  </si>
+  <si>
+    <t>Secondary sheet to simplify model</t>
+  </si>
+  <si>
+    <t>Adorama (fixed)</t>
+  </si>
+  <si>
+    <t>GoVets (fixed)</t>
+  </si>
+  <si>
+    <t>Plotter (fixed)</t>
+  </si>
+  <si>
+    <t>Tiger (fixed)</t>
+  </si>
+  <si>
+    <t>MacMall</t>
+  </si>
+  <si>
+    <t>shi</t>
+  </si>
+  <si>
+    <t>Grand &amp; Toy</t>
+  </si>
+  <si>
+    <t>Zones</t>
+  </si>
+  <si>
+    <t>CDW</t>
+  </si>
+  <si>
+    <t>IT Supplies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imaging Spectrum </t>
+  </si>
+  <si>
+    <t>Laube</t>
+  </si>
+  <si>
+    <t>LexJet</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>All American</t>
+  </si>
+  <si>
+    <t>ProImaging Supplies</t>
+  </si>
+  <si>
+    <t>Shades of Paper</t>
+  </si>
+  <si>
+    <t>Spectraflow</t>
+  </si>
+  <si>
+    <t>Scrub data over mastersheet to have uniform names/skus</t>
+  </si>
+  <si>
+    <t>Link with PowerBI dashboard (automate)</t>
   </si>
 </sst>
 </file>
@@ -518,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A127FC-DCE5-734A-B01D-F35CEE122A80}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,7 +583,7 @@
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="45.5" customWidth="1"/>
+    <col min="4" max="4" width="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -540,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -551,7 +605,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -562,7 +616,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -573,150 +627,216 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>32</v>
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Road_Map.xlsx
+++ b/Road_Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sam/Desktop/Epson_WS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52C1ECC-8DFE-F24E-A8FE-C2BD83A813F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D91D4D-5875-5645-8965-83619E19E1F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8360" yWindow="4500" windowWidth="28040" windowHeight="17440" xr2:uid="{A27A5D58-989B-E34F-8F65-B59C7EA9A8F3}"/>
+    <workbookView xWindow="8360" yWindow="3000" windowWidth="28040" windowHeight="17440" xr2:uid="{A27A5D58-989B-E34F-8F65-B59C7EA9A8F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>Websites</t>
   </si>
   <si>
-    <t>Models</t>
-  </si>
-  <si>
     <t>Staples</t>
   </si>
   <si>
@@ -211,6 +208,108 @@
   </si>
   <si>
     <t>Link with PowerBI dashboard (automate)</t>
+  </si>
+  <si>
+    <t>Models (T-Series)</t>
+  </si>
+  <si>
+    <t>Epson P400</t>
+  </si>
+  <si>
+    <t>Epson P600</t>
+  </si>
+  <si>
+    <t>Epson P800</t>
+  </si>
+  <si>
+    <t>Epson P800 DES</t>
+  </si>
+  <si>
+    <t>Epson P800 SP</t>
+  </si>
+  <si>
+    <t>Epson P5000</t>
+  </si>
+  <si>
+    <t>Epson P6000</t>
+  </si>
+  <si>
+    <t>Epson P6000 DES</t>
+  </si>
+  <si>
+    <t>Epson P7000</t>
+  </si>
+  <si>
+    <t>Epson P8000</t>
+  </si>
+  <si>
+    <t>Epson P9000</t>
+  </si>
+  <si>
+    <t>Epson P10000</t>
+  </si>
+  <si>
+    <t>Epson P20000</t>
+  </si>
+  <si>
+    <t>Canon PIXMA PRO-10</t>
+  </si>
+  <si>
+    <t>Canon PIXMA PRO-100</t>
+  </si>
+  <si>
+    <t>Canon imagePROGRAF PRO-1000</t>
+  </si>
+  <si>
+    <t>Canon imagePROGRAF PRO-2000</t>
+  </si>
+  <si>
+    <t>Canon imagePROGRAF PRO-4000</t>
+  </si>
+  <si>
+    <t>Canon imagePROGRAF PRO-4000S</t>
+  </si>
+  <si>
+    <t>Canon imagePROGRAF PRO-6000</t>
+  </si>
+  <si>
+    <t>Canon imagePROGRAF PRO-6000S</t>
+  </si>
+  <si>
+    <t>Canon imagePROGRAF iPF9400</t>
+  </si>
+  <si>
+    <t>Canon imagePROGRAF iPF6450</t>
+  </si>
+  <si>
+    <t>Canon imagePROGRAF iPF6400</t>
+  </si>
+  <si>
+    <t>HP Z6 Printer</t>
+  </si>
+  <si>
+    <t>HP Z9 Printer</t>
+  </si>
+  <si>
+    <t>HP Z6 24 PS (T8W15A)</t>
+  </si>
+  <si>
+    <t>HP Z6 44 PS (T8W16A)</t>
+  </si>
+  <si>
+    <t>HP Z6 44 DR PS (T8W18A)</t>
+  </si>
+  <si>
+    <t>HP Z9 24 (W3Z71A)</t>
+  </si>
+  <si>
+    <t>HP Z9 44 (W3Z72A)</t>
+  </si>
+  <si>
+    <t>HP Z9+ 44 DR PS VT (X9S24A)</t>
+  </si>
+  <si>
+    <t>Models (P-Series)</t>
   </si>
 </sst>
 </file>
@@ -572,17 +671,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A127FC-DCE5-734A-B01D-F35CEE122A80}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
   </cols>
   <sheetData>
@@ -591,252 +690,357 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
